--- a/tut04/output_by_subject/MA539.csv.xlsx
+++ b/tut04/output_by_subject/MA539.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,160 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2012MA15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2012MA21</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2012MA16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2121MA04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2012MA22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2012MA17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Elective - II</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2121MA08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MA539</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
